--- a/VP5_Cucumber_TestNG/TestData/TestData.xlsx
+++ b/VP5_Cucumber_TestNG/TestData/TestData.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="VP_new_sheet" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>sa1@gmail.com</t>
   </si>
@@ -30,13 +31,38 @@
   </si>
   <si>
     <t>sadmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User name </t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>UserselDATA</t>
+  </si>
+  <si>
+    <t>UserSelenium6throwDATA</t>
+  </si>
+  <si>
+    <t>VPNewColumn</t>
+  </si>
+  <si>
+    <t>VP1</t>
+  </si>
+  <si>
+    <t>VP2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,13 +70,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,8 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,51 +433,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.6015625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s" s="4">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s" s="5">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>